--- a/uniform_comparison_set.xlsx
+++ b/uniform_comparison_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/VisualStudioProjects/AI4Logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53069E30-451E-7545-A5C6-096E4FEFEF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A672C99-04FE-6B4A-B7C5-06492EA96FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="880" windowWidth="31560" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,24 +273,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$AD$1</c:f>
@@ -488,7 +487,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1721-1A4B-9152-13DB3CFA080D}"/>
@@ -499,17 +497,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$AD$1</c:f>
@@ -707,7 +703,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1721-1A4B-9152-13DB3CFA080D}"/>
@@ -722,10 +717,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1904980207"/>
         <c:axId val="1904891711"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1904980207"/>
         <c:scaling>
@@ -842,7 +837,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,10 +1464,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1788,7 +1783,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
